--- a/public/reports/3132 - Чеп за хендикеп - Зрењанин/2026/01/prepaid/complete_report_Cep_za_hendikep_-_Zrenjanin_prepaid_01_2026.xlsx
+++ b/public/reports/3132 - Чеп за хендикеп - Зрењанин/2026/01/prepaid/complete_report_Cep_za_hendikep_-_Zrenjanin_prepaid_01_2026.xlsx
@@ -46,7 +46,7 @@
     <t>/01</t>
   </si>
   <si>
-    <t>Уговор бр 482819/1-2024 од 30.10.2024</t>
+    <t/>
   </si>
   <si>
     <t>Прималац (Добављач):</t>
@@ -79,7 +79,7 @@
     <t>Сврха уплате</t>
   </si>
   <si>
-    <t>Обезбеђивање средстава за активности хуманитарне организације усмерене на пружање помоћи особама са инвалидитетом на територији Србије.</t>
+    <t>dsdasdasdasdasdasdasdsada</t>
   </si>
   <si>
     <t>Напомена:</t>
